--- a/data/trans_dic/P14B24_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.003419245078803814</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.003255057850909572</v>
+        <v>0.003255057850909573</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06944398699677415</v>
@@ -624,7 +624,7 @@
         <v>0.03614494320604447</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.008752970735582283</v>
+        <v>0.008752970735582281</v>
       </c>
     </row>
     <row r="5">
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04339355447158385</v>
+        <v>0.04155709748084576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006551842626290503</v>
+        <v>0.007697490415095015</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02270173617919073</v>
+        <v>0.02238855938436562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004210593463218991</v>
+        <v>0.00458893585902131</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01580085929101963</v>
+        <v>0.01561122996996196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01673472696820496</v>
+        <v>0.01499116431534434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1125734673092913</v>
+        <v>0.1100846825078524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02534652244403144</v>
+        <v>0.02616800736331647</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05574753476616604</v>
+        <v>0.05582050445495862</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01607571813640927</v>
+        <v>0.0161021787619245</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.05862107349245849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0841579085508571</v>
+        <v>0.08415790855085707</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03911399137357225</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008549792542407465</v>
+        <v>0.008685909967751615</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0135757679124576</v>
+        <v>0.01468191206876746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04131849517767593</v>
+        <v>0.0391008478442051</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0664158158312354</v>
+        <v>0.06571801509215332</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02809730173190652</v>
+        <v>0.02713274536495577</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04470339570282122</v>
+        <v>0.04424000366518201</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03509505755571515</v>
+        <v>0.03461523938053952</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04665634692942387</v>
+        <v>0.04819926405614059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08312204583754861</v>
+        <v>0.08366891429795925</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1057103148703236</v>
+        <v>0.1055882561693438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05278710850564775</v>
+        <v>0.05212041717838554</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06943775993243771</v>
+        <v>0.07083965375453473</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.0225047225981293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04908007603200561</v>
+        <v>0.0490800760320056</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0159854827519495</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.04950861508388596</v>
+        <v>0.04950861508388595</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002921328746082616</v>
+        <v>0.002939768792462259</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0308186904768906</v>
+        <v>0.03056339991910446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008974790074269462</v>
+        <v>0.008950715945871603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03307457291484021</v>
+        <v>0.03382852272601481</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007659232193631861</v>
+        <v>0.007562220693420527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03791338988211575</v>
+        <v>0.03692109704719879</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0247837266906361</v>
+        <v>0.02462193824170184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0767940387224694</v>
+        <v>0.0795346924877325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0465141565766208</v>
+        <v>0.04699831381399089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06733510892871122</v>
+        <v>0.06946574935261354</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02908148758036937</v>
+        <v>0.02818476234234746</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06747318953782909</v>
+        <v>0.06518701029718661</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.02708041686616022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06571185067515689</v>
+        <v>0.0657118506751569</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01903341417640662</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05004340729457073</v>
+        <v>0.05004340729457071</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002649218346136397</v>
+        <v>0.002744100760161438</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01634480230624678</v>
+        <v>0.01514175110643466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01347344659968482</v>
+        <v>0.0138267738071279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04774824805891079</v>
+        <v>0.04799693740668921</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01068597973856121</v>
+        <v>0.01138082173488545</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03805773354302984</v>
+        <v>0.03572804171687383</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0260452593902631</v>
+        <v>0.02626706934804101</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05897494465811501</v>
+        <v>0.05959496075439367</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04648824897554314</v>
+        <v>0.04613834355083047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08738387708472244</v>
+        <v>0.08781759056563754</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03044493419899453</v>
+        <v>0.03062428080490846</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06825025681948731</v>
+        <v>0.06620901756017485</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008510919807775909</v>
+        <v>0.008796242677449577</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03498379453872559</v>
+        <v>0.03127476109871513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02070154231378393</v>
+        <v>0.02083209989610247</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02289491342202528</v>
+        <v>0.02477740849092259</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01377947702399271</v>
+        <v>0.01316178825930003</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04768875926375608</v>
+        <v>0.05184908357289682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02293246212992751</v>
+        <v>0.02002100292673514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1001934441709959</v>
+        <v>0.09504021373279282</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05452390830413446</v>
+        <v>0.05277173739268663</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06137765723908618</v>
+        <v>0.06339154697375164</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03320709743751567</v>
+        <v>0.03272730054567827</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.003650720876874693</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05166969754452429</v>
+        <v>0.05166969754452431</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03378441377391752</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0633219548994433</v>
+        <v>0.06332195489944328</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01899831570339739</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03225089753334003</v>
+        <v>0.03237323331187292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01859540745358462</v>
+        <v>0.01552655078313956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04391386802900089</v>
+        <v>0.04259841000800998</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.009462288622193888</v>
+        <v>0.009519636255901041</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04297664614834313</v>
+        <v>0.04320257110467095</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01694094133261031</v>
+        <v>0.01871986603718593</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07855710077860227</v>
+        <v>0.0816318834185953</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0645526748909617</v>
+        <v>0.06110161111582852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08830283410289487</v>
+        <v>0.08850749151060382</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0333823374665585</v>
+        <v>0.03478161725542925</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07356904283143809</v>
+        <v>0.07470665812271556</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.02028014853824353</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.07024098000369734</v>
+        <v>0.07024098000369736</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001505968959229312</v>
+        <v>0.001390933073636865</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02797309150505229</v>
+        <v>0.02755251264591146</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01938872021144776</v>
+        <v>0.02140520619382973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07624992593521132</v>
+        <v>0.07742912986206947</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01297259095968003</v>
+        <v>0.01356122597151439</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05820257237555806</v>
+        <v>0.05836827074293603</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01605831072784022</v>
+        <v>0.01495801977120383</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06341851899577029</v>
+        <v>0.06443583651435413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05114705249980433</v>
+        <v>0.05324738242988647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1181568504227893</v>
+        <v>0.1164982901556824</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02995203775274569</v>
+        <v>0.03047238781146161</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08577783948190408</v>
+        <v>0.0850490408155458</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>0.03951046655225433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.04308601898516855</v>
+        <v>0.04308601898516856</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.0265063967549203</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.006304350219308734</v>
+        <v>0.006369601751017523</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004718800536108556</v>
+        <v>0.004736040268034391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02745957434467906</v>
+        <v>0.0268508027712612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03228633203190998</v>
+        <v>0.03113630776045459</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01858112278504542</v>
+        <v>0.0189609686981802</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02027464952028443</v>
+        <v>0.01915990981570918</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02219812441402663</v>
+        <v>0.02229322225010196</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01941673594006536</v>
+        <v>0.02010729232325511</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05658985943937006</v>
+        <v>0.05598790812368839</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05938065796212138</v>
+        <v>0.05751427137817719</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03610417090890925</v>
+        <v>0.03450537268808417</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03460822538622055</v>
+        <v>0.03395376421922335</v>
       </c>
     </row>
     <row r="28">
@@ -1268,13 +1268,13 @@
         <v>0.01093851061833929</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.02649560900372193</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="31">
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12528</v>
+        <v>11998</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2071</v>
+        <v>2433</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13223</v>
+        <v>13041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2673</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4642</v>
+        <v>4586</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5336</v>
+        <v>4780</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32500</v>
+        <v>31782</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8011</v>
+        <v>8271</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32471</v>
+        <v>32513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10207</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4297</v>
+        <v>4365</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7191</v>
+        <v>7776</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21613</v>
+        <v>20453</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36199</v>
+        <v>35819</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28818</v>
+        <v>27829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48043</v>
+        <v>47545</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17638</v>
+        <v>17397</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24712</v>
+        <v>25529</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43480</v>
+        <v>43766</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57616</v>
+        <v>57550</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54142</v>
+        <v>53458</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>74625</v>
+        <v>76131</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9738</v>
+        <v>9658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11787</v>
+        <v>12056</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5016</v>
+        <v>4952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25492</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7895</v>
+        <v>7844</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24266</v>
+        <v>25132</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15643</v>
+        <v>15806</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23997</v>
+        <v>24756</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19045</v>
+        <v>18457</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45367</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>978</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6099</v>
+        <v>5650</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5218</v>
+        <v>5355</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20148</v>
+        <v>20253</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8082</v>
+        <v>8608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30260</v>
+        <v>28408</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9612</v>
+        <v>9694</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22006</v>
+        <v>22238</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18004</v>
+        <v>17869</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36873</v>
+        <v>37056</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23027</v>
+        <v>23163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54266</v>
+        <v>52643</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1798</v>
+        <v>1858</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7647</v>
+        <v>6836</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4696</v>
+        <v>4725</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9840</v>
+        <v>10650</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5959</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10073</v>
+        <v>10952</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4716</v>
+        <v>4118</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21901</v>
+        <v>20775</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12367</v>
+        <v>11970</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26381</v>
+        <v>27246</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14362</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="24">
@@ -2066,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8731</v>
+        <v>8764</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5079</v>
+        <v>4241</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11554</v>
+        <v>11208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5074</v>
+        <v>5105</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>22941</v>
+        <v>23062</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4458</v>
+        <v>4926</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21266</v>
+        <v>22098</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17630</v>
+        <v>16688</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23232</v>
+        <v>23286</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17901</v>
+        <v>18651</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>39272</v>
+        <v>39879</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>989</v>
+        <v>913</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20017</v>
+        <v>19716</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>13403</v>
+        <v>14797</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>58764</v>
+        <v>59673</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17485</v>
+        <v>18279</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>86505</v>
+        <v>86751</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10543</v>
+        <v>9821</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>45381</v>
+        <v>46109</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>35358</v>
+        <v>36810</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>91061</v>
+        <v>89783</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40371</v>
+        <v>41072</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>127489</v>
+        <v>126405</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4908</v>
+        <v>4959</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3766</v>
+        <v>3780</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>22686</v>
+        <v>22183</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>26794</v>
+        <v>25840</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>29818</v>
+        <v>30428</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>33006</v>
+        <v>31191</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>17283</v>
+        <v>17357</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>15496</v>
+        <v>16047</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>46753</v>
+        <v>46255</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>49279</v>
+        <v>47730</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>57938</v>
+        <v>55372</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>56341</v>
+        <v>55275</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
     </row>
     <row r="40">
